--- a/Drohne/Konfiguration_Raspi.xlsx
+++ b/Drohne/Konfiguration_Raspi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -41,12 +41,15 @@
   <si>
     <t>https://www.raspberrypi.org/documentation/configuration/wireless/wireless-cli.md</t>
   </si>
+  <si>
+    <t>htop installiert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +65,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,17 +95,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,7 +390,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +434,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Drohne/Konfiguration_Raspi.xlsx
+++ b/Drohne/Konfiguration_Raspi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>htop installiert</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/dschep/24aa61672a2092246eaca2824400d37f</t>
+  </si>
+  <si>
+    <t>Python 3.6.3 installiert</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,8 +449,15 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -702,8 +715,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Drohne/Konfiguration_Raspi.xlsx
+++ b/Drohne/Konfiguration_Raspi.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -49,6 +50,15 @@
   </si>
   <si>
     <t>Python 3.6.3 installiert</t>
+  </si>
+  <si>
+    <t>Raspbian neu installiert</t>
+  </si>
+  <si>
+    <t>Wlan Koehlernet</t>
+  </si>
+  <si>
+    <t>KEINE STATISCHE IP</t>
   </si>
 </sst>
 </file>
@@ -396,7 +406,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,15 +470,29 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43089</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1">
+        <v>43089</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>43089</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,8 +740,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Drohne/Konfiguration_Raspi.xlsx
+++ b/Drohne/Konfiguration_Raspi.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -59,13 +58,40 @@
   </si>
   <si>
     <t>KEINE STATISCHE IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable UARD für GPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.instructables.com/id/Raspberry-Pi-the-Neo-6M-GPS/ </t>
+  </si>
+  <si>
+    <t>Kommentar von rgrokett! Beides Serial disabled</t>
+  </si>
+  <si>
+    <t>GPS Tools</t>
+  </si>
+  <si>
+    <t>sudo apt-get install gpsd gpsd-clients</t>
+  </si>
+  <si>
+    <t>Python GPIO Library</t>
+  </si>
+  <si>
+    <t>http://tutorials-raspberrypi.de/gpio/ampelschaltung-mit-gpio-teil-1/</t>
+  </si>
+  <si>
+    <t>Python pigpio installiert</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/forums/viewtopic.php?t=66445</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +110,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,11 +150,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -403,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,9 +449,10 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="117.42578125" customWidth="1"/>
+    <col min="4" max="4" width="109.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -438,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43032</v>
       </c>
@@ -449,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43034</v>
       </c>
@@ -458,7 +494,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43036</v>
       </c>
@@ -469,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43089</v>
       </c>
@@ -478,7 +514,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43089</v>
       </c>
@@ -489,41 +525,78 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43089</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+        <v>43091</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" s="2"/>
     </row>
@@ -741,8 +814,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>